--- a/data/trans_dic/P52_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P52_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha empeorado su situación económica desde la primera encuesta</t>
+          <t>Población que ha empeorado su situación económica desde la primera encuesta (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>51,91%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>70,04%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>48,6%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>67,73%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>54,91%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>40,09%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>60,24%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>61,67%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>44,62%</t>
+          <t>7,43%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>39,39; 62,98</t>
+          <t>4,53; 8,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>59,61; 79,3</t>
+          <t>8,07; 14,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>37,6; 62,02</t>
+          <t>6,46; 14,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>57,12; 77,64</t>
+          <t>6,18; 10,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>40,85; 64,36</t>
+          <t>7,28; 11,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,23; 49,1</t>
+          <t>4,6; 7,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>52,67; 68,25</t>
+          <t>5,82; 8,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>51,69; 68,25</t>
+          <t>8,3; 11,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>37,94; 53,83</t>
+          <t>5,95; 10,56</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>57,62%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62,96%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>36,28%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>51,38%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>63,2%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>52,15%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>54,19%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>63,07%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>44,46%</t>
+          <t>7,75%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,84; 72,4</t>
+          <t>4,91; 11,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,87; 74,19</t>
+          <t>7,23; 13,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,09; 50,85</t>
+          <t>4,01; 10,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>39,41; 62,71</t>
+          <t>6,06; 11,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>51,0; 73,05</t>
+          <t>6,86; 11,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,99; 61,07</t>
+          <t>6,99; 11,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,63; 63,29</t>
+          <t>6,15; 10,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>55,29; 70,78</t>
+          <t>7,78; 11,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>36,77; 52,59</t>
+          <t>6,15; 10,02</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>37,9%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>76,81%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>50,53%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>42,8%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>55,9%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>75,8%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>40,6%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>65,86%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>64,96%</t>
+          <t>6,84%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,95; 70,03</t>
+          <t>1,37; 9,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>48,68; 92,86</t>
+          <t>6,07; 16,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,07; 76,46</t>
+          <t>1,82; 9,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,03; 66,4</t>
+          <t>2,14; 9,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>35,8; 73,06</t>
+          <t>5,5; 14,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>53,1; 91,47</t>
+          <t>5,59; 14,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,11; 58,83</t>
+          <t>2,48; 7,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>49,97; 78,72</t>
+          <t>6,81; 13,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>48,0; 79,67</t>
+          <t>4,37; 9,93</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>53,02%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>67,78%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>43,8%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>57,86%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>57,94%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>48,65%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>55,63%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>62,71%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>46,2%</t>
+          <t>7,49%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>44,04; 61,97</t>
+          <t>4,84; 7,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>59,71; 74,04</t>
+          <t>8,47; 12,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,72; 52,75</t>
+          <t>5,75; 10,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>50,24; 65,57</t>
+          <t>6,41; 9,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,7; 65,09</t>
+          <t>7,72; 10,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>43,15; 55,35</t>
+          <t>6,35; 8,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>49,85; 61,8</t>
+          <t>6,03; 8,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>56,82; 67,71</t>
+          <t>8,55; 10,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>41,27; 52,06</t>
+          <t>6,35; 8,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1072,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha empeorado su situación económica desde la primera encuesta (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>103251</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>175054</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>147702</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>144429</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>165836</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>109671</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>247680</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>340890</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>257373</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>74910; 141963</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>132993; 235404</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>106218; 233746</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>111743; 184573</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>133070; 205484</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>83571; 139124</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>201574; 298138</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>288659; 406164</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>206265; 365820</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>99745</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>136014</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>89625</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>117686</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>121427</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>124574</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>217431</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>257441</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>214198</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>67455; 153642</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>99749; 187394</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>55437; 144549</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>84282; 166841</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>94295; 155156</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>96668; 160108</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>170192; 282715</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>214238; 317362</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>169902; 276964</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>16284</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>43519</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>18457</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>21427</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>37838</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>38625</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>37712</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>81358</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>57081</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5787; 38919</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>25677; 70986</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7686; 38647</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8800; 38959</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>22543; 59931</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>23044; 60269</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20738; 62726</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>56726; 114890</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>36435; 82865</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>282.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>219280</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>354588</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>255783</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>283542</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>325101</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>272869</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>502822</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>679689</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>528652</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>166813; 275585</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>292027; 432808</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>198269; 351629</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>231508; 344625</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>278873; 374665</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>229538; 321238</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>425896; 593298</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>603554; 766024</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>448345; 632752</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>